--- a/TEST_Simple_Template.xlsx
+++ b/TEST_Simple_Template.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Invoice Summary'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Complete Data'!$A$1:$AC$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Complete Data'!$A$1:$W$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Export Metadata'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -505,15 +505,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="33" customWidth="1" min="1" max="1"/>
+    <col width="32" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="26" customWidth="1" min="4" max="4"/>
+    <col width="31" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
-    <col width="32" customWidth="1" min="6" max="6"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
   </cols>
@@ -529,21 +529,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Generated: 02/11/2025 20:22:21</t>
+          <t>Generated: 03/11/2025 14:03:04</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Total Invoices: 4</t>
+          <t>Total Invoices: 1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Period: 15/10/2024 - 28/10/2024</t>
+          <t>Period: 01/11/2025</t>
         </is>
       </c>
     </row>
@@ -608,22 +608,22 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>INV/2024/001</t>
+          <t>INV-2025-001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>15/10/2024</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>15/11/2024</t>
+          <t>01/12/2025</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>Tata Motors Ltd.</t>
+          <t>ABC Suppliers Private Limited</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -633,177 +633,24 @@
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>राजेश इंटरप्राइजेज</t>
+          <t>XYZ Corporation Ltd</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
-        <v>354000</v>
+        <v>100300</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>354000</v>
+        <v>50000</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0</v>
+        <v>50300</v>
       </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>Paid</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>CGST+SGST</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>INV-2024-002</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>20/10/2024</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>20/11/2024</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>24AAACR5055K1ZK</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>Gujarat Petrochemicals Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>5900000</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>5900000</v>
-      </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>Unpaid</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>IGST</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>SRV/BLR/2024/157</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>Infosys Ltd</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>29AAACI1681G1ZT</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>HDFC Bank Ltd</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>11800000</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>6800000</v>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>CGST+SGST</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>KR-001</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>05/11/2024</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>श्री कृष्णा किराना स्टोर</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>09AABCS1234F1Z5</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>Agarwal Sweet House</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>5664</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>5664</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>CGST+SGST</t>
         </is>
@@ -824,7 +671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -833,35 +680,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="31" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
-    <col width="17" customWidth="1" min="8" max="8"/>
-    <col width="32" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
-    <col width="4" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
-    <col width="18" customWidth="1" min="15" max="15"/>
-    <col width="50" customWidth="1" min="16" max="16"/>
-    <col width="19" customWidth="1" min="17" max="17"/>
-    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="13" max="13"/>
+    <col width="46" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="16" customWidth="1" min="17" max="17"/>
+    <col width="13" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="50" customWidth="1" min="21" max="21"/>
-    <col width="13" customWidth="1" min="22" max="22"/>
-    <col width="16" customWidth="1" min="23" max="23"/>
-    <col width="10" customWidth="1" min="24" max="24"/>
-    <col width="18" customWidth="1" min="25" max="25"/>
-    <col width="50" customWidth="1" min="26" max="26"/>
-    <col width="17" customWidth="1" min="27" max="27"/>
-    <col width="18" customWidth="1" min="28" max="28"/>
-    <col width="15" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="18" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="17" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -897,616 +738,193 @@
       </c>
       <c r="G1" s="6" t="inlineStr">
         <is>
-          <t>customer_address</t>
+          <t>customer_gstin</t>
         </is>
       </c>
       <c r="H1" s="6" t="inlineStr">
         <is>
-          <t>customer_gstin</t>
+          <t>customer_name</t>
         </is>
       </c>
       <c r="I1" s="6" t="inlineStr">
         <is>
-          <t>customer_name</t>
+          <t>discount</t>
         </is>
       </c>
       <c r="J1" s="6" t="inlineStr">
         <is>
-          <t>customer_state</t>
+          <t>due_date</t>
         </is>
       </c>
       <c r="K1" s="6" t="inlineStr">
         <is>
-          <t>discount</t>
+          <t>id</t>
         </is>
       </c>
       <c r="L1" s="6" t="inlineStr">
         <is>
-          <t>due_date</t>
+          <t>igst</t>
         </is>
       </c>
       <c r="M1" s="6" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>line_item_amount</t>
         </is>
       </c>
       <c r="N1" s="6" t="inlineStr">
         <is>
-          <t>igst</t>
+          <t>line_item_description</t>
         </is>
       </c>
       <c r="O1" s="6" t="inlineStr">
         <is>
-          <t>line_item_amount</t>
+          <t>line_item_hsn_sac</t>
         </is>
       </c>
       <c r="P1" s="6" t="inlineStr">
         <is>
-          <t>line_item_description</t>
+          <t>line_item_quantity</t>
         </is>
       </c>
       <c r="Q1" s="6" t="inlineStr">
         <is>
-          <t>line_item_hsn_sac</t>
+          <t>line_item_rate</t>
         </is>
       </c>
       <c r="R1" s="6" t="inlineStr">
         <is>
-          <t>line_item_quantity</t>
+          <t>paid_amount</t>
         </is>
       </c>
       <c r="S1" s="6" t="inlineStr">
         <is>
-          <t>line_item_rate</t>
+          <t>payment_status</t>
         </is>
       </c>
       <c r="T1" s="6" t="inlineStr">
         <is>
-          <t>line_item_unit</t>
+          <t>sgst</t>
         </is>
       </c>
       <c r="U1" s="6" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>shipping_charges</t>
         </is>
       </c>
       <c r="V1" s="6" t="inlineStr">
         <is>
-          <t>paid_amount</t>
+          <t>vendor_address</t>
         </is>
       </c>
       <c r="W1" s="6" t="inlineStr">
         <is>
-          <t>payment_status</t>
-        </is>
-      </c>
-      <c r="X1" s="6" t="inlineStr">
-        <is>
-          <t>sgst</t>
-        </is>
-      </c>
-      <c r="Y1" s="6" t="inlineStr">
-        <is>
-          <t>shipping_charges</t>
-        </is>
-      </c>
-      <c r="Z1" s="6" t="inlineStr">
-        <is>
-          <t>vendor_address</t>
-        </is>
-      </c>
-      <c r="AA1" s="6" t="inlineStr">
-        <is>
           <t>vendor_gstin</t>
-        </is>
-      </c>
-      <c r="AB1" s="6" t="inlineStr">
-        <is>
-          <t>vendor_phone</t>
-        </is>
-      </c>
-      <c r="AC1" s="6" t="inlineStr">
-        <is>
-          <t>vendor_state</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INV/2024/001</t>
+          <t>INV-2025-001</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tata Motors Ltd.</t>
+          <t>ABC Suppliers Private Limited</t>
         </is>
       </c>
       <c r="D2" s="8" t="n">
-        <v>354000</v>
+        <v>100300</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>300000</v>
+        <v>85000</v>
       </c>
       <c r="F2" s="8" t="n">
-        <v>27000</v>
+        <v>7650</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Shop 15, Gandhi Market, Pune, Maharashtra 411001</t>
+          <t>29AABCT1234F2Z5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>29AABCU9603R1ZX</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>राजेश इंटरप्राइजेज</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Maharashtra</t>
-        </is>
-      </c>
-      <c r="K2" s="8" t="n">
+          <t>XYZ Corporation Ltd</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="7" t="inlineStr">
-        <is>
-          <t>2024-11-15</t>
-        </is>
+      <c r="J2" s="7" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>12345-67890</t>
+        </is>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N2" s="8" t="n">
+          <t>50000.0, 35000.0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Premium Widget Model A, Service Subscription</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>8471, 998314</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>100, 1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>500.0, 35000.0</t>
+        </is>
+      </c>
+      <c r="R2" s="8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="T2" s="8" t="n">
+        <v>7650</v>
+      </c>
+      <c r="U2" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>150000, 150000</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Tata Nexon EV Battery Pack, Electric Motor Assembly (कनेक्टेड)</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>8507, 8501</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>2, 2</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>75000, 75000</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Nos, Sets</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Payment received via NEFT. GST invoice as per section 31.</t>
-        </is>
-      </c>
-      <c r="V2" s="8" t="n">
-        <v>354000</v>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>123 Business Park, Mumbai</t>
+        </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="X2" s="8" t="n">
-        <v>27000</v>
-      </c>
-      <c r="Y2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Bombay House, 24 Homi Mody Street, Mumbai, Maharashtra 400001</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
           <t>27AABCU9603R1ZM</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>+91 22 6665 8282</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Maharashtra</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>INV-2024-002</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>2024-10-20</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="n">
-        <v>5900000</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>GIDC, Vapi, Gujarat 396195</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>24AABCG1234F1Z5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Gujarat Petrochemicals Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Gujarat</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="n">
-        <v>100000</v>
-      </c>
-      <c r="L3" s="7" t="inlineStr">
-        <is>
-          <t>2024-11-20</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N3" s="8" t="n">
-        <v>900000</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>5100000</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Polypropylene Granules (Grade H030G)</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>3902</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>51000</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="V3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Unpaid</t>
-        </is>
-      </c>
-      <c r="X3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Maker Chambers IV, 222 Nariman Point, Mumbai 400021</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>24AAACR5055K1ZK</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Maharashtra</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SRV/BLR/2024/157</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="inlineStr">
-        <is>
-          <t>2024-10-25</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Infosys Ltd</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="n">
-        <v>11800000</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>900000</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Ramachandra Agrahara, Bangalore 560027</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>29AAACH6188F1ZN</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>HDFC Bank Ltd</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7" t="inlineStr">
-        <is>
-          <t>2024-10-30</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>IT Consulting Services (Q3 2024) - Digital Transformation</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>998314</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>LS</t>
-        </is>
-      </c>
-      <c r="V4" s="8" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="X4" s="8" t="n">
-        <v>900000</v>
-      </c>
-      <c r="Y4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Electronics City, Bangalore, Karnataka 560100</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>29AAACI1681G1ZT</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>KR-001</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="inlineStr">
-        <is>
-          <t>2024-10-28</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>श्री कृष्णा किराना स्टोर</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>5664</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>4800</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>432</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Sadar Bazaar, Agra, UP 282001</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>09AABCA9876G2Z8</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Agarwal Sweet House</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7" t="inlineStr">
-        <is>
-          <t>2024-11-05</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2250, 2000, 550</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Sugar (चीनी), Rice (बासमती), Cooking Oil (खाना का तेल)</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>1701, 1006, 1507</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>50, 25, 5</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>45, 80, 110</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Kg, Kg, Liters</t>
-        </is>
-      </c>
-      <c r="V5" s="8" t="n">
-        <v>5664</v>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="X5" s="8" t="n">
-        <v>432</v>
-      </c>
-      <c r="Y5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>गांधी चौक, आगरा, उत्तर प्रदेश 282001</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>09AABCS1234F1Z5</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC1"/>
+  <autoFilter ref="A1:W1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1541,7 +959,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02/11/2025 20:22:21</t>
+          <t>03/11/2025 14:03:04</t>
         </is>
       </c>
     </row>
@@ -1564,7 +982,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1574,7 +992,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1584,7 +1002,7 @@
         </is>
       </c>
       <c r="B7" s="10" t="n">
-        <v>18059664</v>
+        <v>100300</v>
       </c>
     </row>
     <row r="8">
@@ -1594,7 +1012,7 @@
         </is>
       </c>
       <c r="B8" s="10" t="n">
-        <v>2754864</v>
+        <v>15300</v>
       </c>
     </row>
     <row r="9">
@@ -1636,7 +1054,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8/8 valid</t>
+          <t>2/2 valid</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1066,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/4 consistent</t>
+          <t>1/1 consistent</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1078,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8/8 valid</t>
+          <t>2/2 valid</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1090,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/4 complete</t>
+          <t>1/1 complete</t>
         </is>
       </c>
     </row>
